--- a/Sample/template.xlsx
+++ b/Sample/template.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalul\Documents\GitHub\Excel2Json\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalul\Documents\GitHub\Excel2Json\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0F7888-09E4-4F66-86D9-8B5157339192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455469F2-D7FF-474C-8413-DAC41B58DDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试表" sheetId="1" r:id="rId1"/>
+    <sheet name="测试表 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>//类型标记</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,10 +104,6 @@
     <t>30个荣誉币</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>10000酒</t>
     </r>
@@ -282,12 +279,24 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +380,13 @@
       <color rgb="FF9C5700"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -892,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="B2 D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -926,19 +942,19 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -956,17 +972,15 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -974,13 +988,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,13 +1002,13 @@
         <v>15000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1002,13 +1016,13 @@
         <v>15001</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -1020,10 +1034,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1034,10 +1048,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1048,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1062,10 +1076,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1076,10 +1090,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1090,10 +1104,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -1105,13 +1119,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1122,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1136,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1150,10 +1164,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1164,10 +1178,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1178,10 +1192,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1192,10 +1206,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1203,13 +1217,13 @@
         <v>100006</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1221,12 +1235,12 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1234,4 +1248,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8073869F-7413-48EA-82B7-501A97B19C5F}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" customWidth="1"/>
+    <col min="4" max="4" width="38.1328125" customWidth="1"/>
+    <col min="5" max="5" width="29.1328125" customWidth="1"/>
+    <col min="6" max="6" width="16.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>